--- a/results/fourth_stage_results.xlsx
+++ b/results/fourth_stage_results.xlsx
@@ -577,27 +577,26 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>"How can we ensure that advances in AI and ML algorithms, which power everything from smart homes to urban planning, are understandable, trustworthy, and controllable by the everyday user?"</t>
+          <t>"As intelligent systems become increasingly integrated into our daily lives, how can we ensure that their interfaces remain intelligible and user-friendly, addressing the issues of trust and control?"</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>"Can we make AI and ML universally controllable, reliable, and accessible?"</t>
+          <t>How can we design AI-integrated interfaces for everyday use, and what principles guide this process?</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>To ensure that advances in AI and ML algorithms are understandable, trustworthy, and controllable by everyday users, several key strategies can be implemented: 
-- **Explainability**: Develop techniques and tools that provide clear and concise explanations of how AI and ML algorithms work and the decisions they make. This includes creating user-friendly interfaces that present complex information in a digestible manner. 
-- **Transparency**: Promote transparency in AI development and deployment by encouraging open data practices, code sharing, and documentation. This allows for independent review and validation of algorithms, ensuring trustworthiness and helping identify potential biases or limitations. 
-- **User Control**: Empower users with customizable settings and preferences that give them a sense of control over how AI and ML algorithms function in their daily lives. This could include privacy settings, data sharing options, and personalized recommendations. 
-- **Ethical Guidelines**: Establish ethical guidelines and best practices for AI development, covering areas such as data privacy, algorithmic bias, and fairness. These guidelines should be widely disseminated and followed by developers, ensuring that AI advancements are responsible and align with societal values. 
-- **Education and Awareness**: Invest in educational programs and campaigns to raise awareness about AI and ML technologies among the general public. This includes teaching digital literacy skills, providing insights into how these algorithms work, and explaining their potential benefits and drawbacks. 
-- **Feedback Loops**: Implement feedback mechanisms where users can report issues, concerns, or unexpected behavior related to AI systems. This</t>
+          <t>To ensure that intelligent system interfaces remain user-friendly and address issues of trust and control, several key considerations must be made: 
+- Simplicity and Clarity: Interface design should prioritize simplicity and clarity. The interface should be easy to understand and navigate for users with varying levels of technical expertise. Use clear and concise language, intuitive layout, and consistent design patterns to make the system accessible and predictable. 
+- Transparency and Explainability: Users should be provided with transparent information about the system's functionality, capabilities, and limitations. Explain, in layman's terms, how the system works, why it makes certain decisions or recommendations, and how user data is being used. This promotes trust and helps users feel more in control. 
+- User Feedback and Iterative Design: Incorporate user feedback mechanisms to allow users to provide input on their experience. Use this feedback to iteratively improve the interface design, addressing common pain points and incorporating user suggestions where appropriate. This demonstrates responsiveness and a commitment to user-centric design. 
+- Customization and Personalization: Allow users some level of customization or personalization of the interface to suit their individual preferences and needs. This could include adjustable settings, customizable layouts, or adaptable interaction modes. By providing a sense of control and ownership, trust in the system can be enhanced. 
+- Ethical and Bias Consideration: Ensure that ethical guidelines and biases are considered in the design process. This includes addressing issues of privacy, security, fairness, and inclusivity</t>
         </is>
       </c>
     </row>
@@ -661,24 +660,23 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>"How can we design interfaces that empower users to understand and control algorithmic processes, fostering trust and effective interaction with machine-learning systems?"</t>
+          <t>"How can we create interfaces that empower users to understand and control algorithmic processes, ensuring autonomous systems are explainable and transparent by design?"</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>How can design strategies help users trust and understand ML algorithms?</t>
+          <t>"How might we design transparent, user-controlled algorithmic interfaces for effective decision-making?"</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>To design interfaces that empower users to understand and control algorithmic processes, we can follow these strategies: 
-- Transparency: Provide clear and concise explanations of algorithmic processes and how they work. This includes disclosing the data used, the logic applied, and the potential biases or limitations of the algorithm. 
-- User Control: Give users the ability to adjust algorithmic parameters, select alternative algorithms, or even disable algorithmic interventions. This puts users in the driver's seat and allows them to tailor the system to their needs and preferences. 
-- Visualizations: Utilize visual aids, such as charts, diagrams, or animations, to illustrate how the algorithm makes decisions or generates outputs. Visualizations can help users grasp complex concepts and see the inner workings of the system. 
-- Feedback Mechanisms: Implement feedback loops where users can provide input on the algorithm's performance, accuracy, and potential biases. This two-way communication empowers users and helps improve the algorithm over time. 
-- User Education: Offer tutorials, tooltips, or guided tours to help users understand the basics of machine learning and algorithmic decision-making. Educated users are more likely to trust and effectively use the system. 
-- Ethical Considerations: Ensure that algorithms are designed with ethical principles in mind, addressing issues like fairness, accountability, and transparency. This includes considering the potential impact on different user groups and taking steps to mitigate any negative consequences. 
-- User Testing and Iteration: Continuously test the interface with representative</t>
+          <t>The design of user interfaces that enable users to comprehend and manage algorithmic processes is essential for ensuring transparency and explainability in autonomous systems. Here are some key considerations to achieve this: 
+- Visualizations and Explanations: Develop visual interfaces that provide clear and intuitive explanations of the algorithmic processes and their outcomes. This could include step-by-step breakdowns, impact assessments, and transparent displays of the data used and decisions made. 
+- User Control and Customization: Empower users with the ability to customize and adjust algorithmic parameters to suit their preferences and needs. Provide control options that are easy to understand and use, allowing users to fine-tune the system's behavior. 
+- Feedback and Learning: Incorporate user feedback loops to continuously improve the system's performance and understanding of user requirements. This can be achieved through feedback buttons, surveys, or more advanced techniques like sentiment analysis of user interactions. 
+- Ethical and Bias Awareness: Ensure that interfaces provide information about potential biases, ethical considerations, and limitations of the algorithmic processes. This promotes user trust and awareness, allowing them to make more informed decisions when interacting with the system. 
+- Privacy and Data Protection: Implement robust data protection measures and provide users with clear information about what data is being collected, how it is used, and their rights regarding personal data. This transparency fosters user confidence and ensures compliance with privacy regulations. 
+- Collaboration and Co-creation: Engage users and stakeholders in the design process through participatory design techniques.</t>
         </is>
       </c>
     </row>
@@ -777,29 +775,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>"Explainable AI: Unlocking the Black Box of Machine Intelligence" 
-The field of explainable artificial intelligence (XAI) is a rapidly evolving domain, with a growing need to understand and interpret the complex algorithms that power today's intelligent systems. In this era of deep learning and AI, how can we ensure algorithmic accountability, interpretability, and context-awareness? 
-Our extensive literature review reveals the trends, connections, and gaps in the diverse world of XAI research, spanning from algorithmic transparency to cognitive psychology. With contributions from DARPA and a host of workshops, the community is buzzing with activity, but are we truly making progress towards human-centred machine learning? 
-Join us as we delve into the latest advancements, explore the challenges of interpretability, and discuss the future directions of this exciting field, putting people at the heart of the machine intelligence revolution. 
-It's time to lift the lid on the black box and discover the insights within.</t>
+          <t>Here is a potential question that could be addressed by the given context: 
+"What are the key trends and developments in the field of explainable systems, and how can we ensure that these advancements are understandable and usable by everyday people?" 
+The context provided discusses the growing interest in explainable artificial intelligence (XAI) and the various initiatives and workshops that have emerged as a result. It also highlights the need to make algorithmic and mathematical explanations more accessible and interpretable to general users, which is essential for broader understanding and trust in these systems.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>"How can XAI strategies be applied to create human-centric ML?"</t>
+          <t>What steps could make XAI tools more user-friendly and accessible to the public?</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Explainable AI: The Key to Unlocking the Black Box of Machine Intelligence
-In the realm of artificial intelligence, explainable AI (XAI) is a crucial aspect that addresses the need for transparency and understanding within complex machine intelligence systems. The field of XAI is rapidly evolving, and it is imperative to ensure that these algorithms are accountable, interpretable, and context-aware.
-Through an extensive literature review, we delve into the trends, connections, and gaps in XAI research, spanning from algorithmic transparency to cognitive psychology. The community, with significant contributions from DARPA, is actively exploring ways to make progress toward human-centered machine learning.
-By lifting the lid on the black box, we aim to uncover the insights and interpretations that power these intelligent systems. Joining us on this journey means exploring the latest advancements, confronting the challenges of interpretability, and shaping the future directions of XAI, always keeping people at the heart of this revolutionary technology.
-It is time to unlock the black box and harness the power of machine intelligence with explainability and transparency, ensuring that AI systems are accountable and aligned with human values and expectations.</t>
+          <t>The field of explainable systems, particularly explainable artificial intelligence (XAI), is witnessing several key trends and developments: 
+- Growing Interest and Research: There is increased interest in developing XAI techniques from both academia and industry. This has led to a surge in research exploring various aspects of explainability, interpretability, and transparency in AI systems. 
+- Regulatory and Ethical Focus: With the potential impact of XAI on society, there is a growing regulatory and ethical emphasis on ensuring that AI systems are explainable and transparent. This includes initiatives like the EU's General Data Protection Regulation (GDPR) and the development of ethical guidelines for trustworthy AI. 
+- Development of Interpretability Methods: Researchers are creating innovative methods to interpret and explain the inner workings of AI models, including feature importance methods, rule-based systems, and model distillation techniques. These approaches help in understanding the logic and decisions made by AI algorithms. 
+- Visual and Interactive Explanations: There is a trend towards developing visual and interactive tools to explain AI systems to non-expert users. This includes the use of dashboards, what-if tools, and intuitive data visualizations to help users comprehend and interact with complex AI models. 
+- Domain-specific Explanations: Explainability techniques are being tailored to specific domains, such as healthcare, finance, and autonomous vehicles, where the understanding and trust of users are crucial. Domain-specific explanations consider the unique requirements, terminologies, and concerns of these fields</t>
         </is>
       </c>
     </row>
@@ -877,24 +874,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>"How can we improve the transparency and intelligibility of complex systems for users, especially with the rise of algorithmic decision-making and autonomous technologies? 
-The late 90s and early 2000s saw a shift towards context-aware computing, but it also brought to light the need for users to understand the decisions made by these systems. This has fueled important research in intelligibility and scrutability, with tailored interfaces and explanations aiming to bridge the gap between complex algorithms and user understanding. 
-As we continue to integrate advanced technologies into our daily lives, how can we ensure that users are informed and in control of the systems they interact with?"</t>
+          <t>"How can we bridge the gap between explainable systems in AI/ML communities and HCI to enhance user understanding and trust in technology?"</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>What methods can be used to clarify algorithmic choices and maintain transparency?</t>
+          <t>"How might integrating AI and HCI improve user trust and experience?"</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>To improve the transparency and intelligibility of complex systems for users, especially with the increasing presence of algorithmic decision-making and autonomous technologies, it is essential to focus on three key areas: 
-- Explanation Interfaces: Develop user-friendly interfaces that provide clear and concise explanations of the system's decisions and actions. These interfaces should be tailored to the user's level of expertise and should present information in a digestible manner. Visual aids, natural language explanations, and interactive elements can all enhance user understanding. 
-- User Education and Empowerment: Invest in educating users about the basics of these technologies, their limitations, and potential risks. Providing users with a foundational understanding of how these systems work empowers them to ask the right questions, identify potential biases or errors, and make more informed decisions. 
-- Ethical Algorithm Design: Promote the development of ethical algorithms and decision-making processes. This includes ensuring diversity and fairness in data collection, mitigating biases, and incorporating ethical guidelines into the design process. By doing so, we can address potential issues proactively rather than reactively, building trust and confidence in these technologies. 
-Additionally, fostering a culture of collaboration between developers, designers, and end-users can help identify intelligibility issues early in the design process. Regular usability testing and user feedback should be integrated into the development lifecycle to ensure that complex systems remain understandable and user-friendly. 
-Finally, as these technologies continue to evolve, it is crucial to maintain a proactive approach to regulation and policy development</t>
+          <t>To bridge the gap between explainable systems in AI/ML communities and HCI (Human-Computer Interaction) to enhance user understanding and trust, a multidisciplinary approach is necessary:
+- **Collaborative Efforts**: Bring together experts from both AI/ML and HCI fields to collaborate and integrate their knowledge. This includes involving AI/ML researchers, HCI designers, cognitive scientists, social scientists, and end-users to ensure a holistic understanding of the problem. 
+- **User-Centric Design**: Adopt a user-centric design approach, where the explainability methods are designed keeping the end-users in mind. This involves understanding users' mental models, their level of technical expertise, and their specific needs and concerns regarding AI/ML systems. 
+- **Transparent Communication**: Develop clear and concise explanations of how AI/ML systems work, avoiding technical jargons that might confuse non-expert users. Use familiar metaphors, analogies, and visual aids to help users grasp complex concepts more intuitively. 
+- **Interactive Interfaces**: Design interactive interfaces that allow users to explore and query the AI/ML systems' behavior. This could include step-by-step explanation visualizers, what-if scenario analyzers, and model behavior comparison tools, enabling users to actively engage with the system and build trust through their own investigations. 
+- **User Feedback Integration**: Implement mechanisms to gather user feedback on their understanding and trust levels. This feedback loop helps identify areas where explainability methods fall short</t>
         </is>
       </c>
     </row>
@@ -992,24 +987,27 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Sure! Here is a potential statement that could be addressed by the provided context: 
-"How can we utilize topic modeling and citation network analysis to uncover trends and connections within the vast landscape of explainable systems research?"</t>
+          <t>"How can we effectively navigate the vast landscape of research and identify emerging trends in HCI and explainable systems?"</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>"What methods combine topic modeling and citation analysis for trend and relationship discovery in explainable AI literature research?"</t>
+          <t>"What proactive strategies can we employ to effectively anticipate and address emerging HCI trends and their potential impacts?"</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Here is a response to the potential question: 
-Topic modeling and citation network analysis are powerful tools that can be leveraged to uncover hidden trends and connections within the expansive field of explainable systems research. By applying topic modeling techniques, we can identify underlying themes and clusters within the research landscape, revealing areas of focus and emerging trends. Simultaneously, citation network analysis allows us to visualize and analyze the interconnectedness of research articles, identifying influential works, and revealing the evolution of ideas over time. 
-By combining these approaches, we can gain valuable insights into the complex relationships within explainable systems research. This includes understanding the interplay between different research areas, tracking the diffusion of innovative concepts, and identifying key contributors and collaborations. Moreover, these techniques enable us to make informed decisions regarding resource allocation, research prioritization, and the identification of knowledge gaps, ultimately driving the field forward in a strategic and impactful manner.</t>
+          <t>To effectively navigate the expansive field of research in HCI (Human-Computer Interaction) and identify emerging trends in explainable systems, a systematic and interdisciplinary approach is necessary:
+- **Scoping the Landscape**: Begin by understanding the current state of the field. This involves reviewing existing literature, attending conferences, and staying updated with the latest research through reputable sources. Tools like Google Scholar, arXiv, and research group websites can aid in this process.
+- **Identifying Key Players**: Note the prominent researchers and research groups in the field. These individuals and teams are often at the forefront of emerging trends and can provide insights into future directions. Look for their recent publications, projects, and thought leadership.
+- **Analyzing Research Clusters**: Group research topics into clusters or themes. This helps in identifying areas of focus and understanding the interconnections between different research strands. Topics could include explainable AI, interactive machine learning, user interface design patterns, or ethical considerations in HCI.
+- **Tracking Funding and Grants**: Keep an eye on funding opportunities and granted projects in the field. Research agendas are often influenced by funding priorities, and understanding these can provide insights into emerging areas of interest.
+- **Industry Engagement**: HCI and explainable systems have significant practical implications. Engage with industry professionals and practitioners to understand the real-world applications of these technologies and the challenges they face. This can help identify practical, applicable trends.
+- **Reviewing Predictions and Forecasts</t>
         </is>
       </c>
     </row>
@@ -1090,20 +1088,18 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>"Unraveling the Evolution of Interpretable Machine Intelligence: A Comprehensive Review" 
-This proposed title encapsulates the context provided, which discusses the evolution of different research communities and their interrelations within the field of machine intelligence, with a specific focus on interpretability. The title hints at a comprehensive exploration of the historical development, including early artificial intelligence, expert systems, and the more recent surge of interest in interpretable ML. The use of "unraveling" suggests a process of revealing and understanding the complex interactions and influences within this dynamic research landscape.</t>
+          <t>"Unveiling the Evolution of Artificial Intelligence: A Journey from Expert Systems to Interpretable ML" 
+This copy statement emphasizes the journey of AI research, showcasing how the field has evolved from early expert systems to the current focus on interpretable machine learning. By visualizing the citation network, we uncover distinct research communities and their interconnections, providing a comprehensive overview of the AI landscape. With 28 significant clusters and 9 research communities, we explore the progress and influences that shape the field of artificial intelligence. The statement also hints at the gap between Rule Extraction research and other AI paradigms, offering an intriguing avenue for further exploration.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>"How could a different title change the tone and public appeal?"</t>
+          <t>Trace the evolution of AI from Expert Systems to modern ML, mapping gaps and future paths.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Here is a suggested answer based on the provided context: 
-"The Evolution of Interpretable Machine Intelligence: Unraveling the Complex Web of Research Communities" 
-This title maintains the essence of your proposed title while emphasizing the exploration of different research communities and their interrelations within the field of machine intelligence, with a focus on interpretability. It conveys the idea of revealing and understanding the complex interactions and influences within the dynamic landscape of machine intelligence research.</t>
+          <t>The copy statement "Unveiling the Evolution of Artificial Intelligence: A Journey from Expert Systems to Interpretable ML" effectively captures the evolution and current focus of AI research. By analyzing the citation network, we identified 28 significant clusters and 9 research communities, each contributing to our understanding of the AI landscape. This journey showcases the transition from early expert systems to the latest advancements in interpretable machine learning. One intriguing aspect highlighted is the gap between Rule Extraction research and other AI paradigms, inviting further exploration to bridge this divide and advance the field of artificial intelligence.</t>
         </is>
       </c>
     </row>
@@ -1170,24 +1166,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>"How can we design intelligent systems that build user trust, especially with the growing complexity of machine learning models and the diverse user base?"</t>
+          <t>"How can we design intelligent systems and agents that provide understandable and trustworthy explanations to non-technical users, thereby gaining their confidence in decision-making and task management?"</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>"What strategies can be employed to build and maintain user confidence in intelligent systems, including their ML capabilities?"</t>
+          <t>"How can we create transparent AI, explaining its decisions and building user trust?"</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>To design intelligent systems that foster user trust, it is essential to address the challenges posed by the increasing complexity of machine learning models and the diverse user base. Here are some key considerations: 
-- Explainability and Interpretability: Ensure that the system can explain its decisions and actions in a manner understandable to users. This promotes trust by providing transparency and helping users understand the rationale behind the system's behavior. 
-- User-Centric Design: Involve users in the design process to ensure the system aligns with their expectations and values. Consider usability testing and user feedback loops to iteratively improve the system's trustworthiness. 
-- Ethical and Bias Considerations: Address potential biases in the data, algorithms, and output of the system. Implement fair and ethical practices to ensure that the system treats all users equitably, regardless of their background or characteristics. 
-- Privacy and Security: Protect user data and ensure that the system maintains robust security measures. Provide users with control over their data and transparency about data usage to build trust in the system's privacy practices. 
-- Adaptive and Contextual Understanding: Develop systems that can adapt to different user needs and contexts. This includes personalizing interactions, understanding user preferences, and respecting cultural and regional differences. 
-- Robust Testing and Validation: Employ rigorous testing and validation techniques to ensure the system's accuracy, reliability, and safety. Regularly audit the system to identify and address potential issues or vulnerabilities. 
-- Trust Indicators and Transparency:</t>
+          <t>To design intelligent systems and agents that offer understandable and trustworthy explanations to non-technical users, there are several key considerations: 
+- Simplify Complex Ideas: Express complex technical concepts in simple, easy-to-understand language. Use analogies, examples, and visualizations to make abstract ideas more tangible. 
+- Transparency in Process: Explain the decision-making process or task management approach in a step-by-step manner. Outline the factors considered, the weight given to each factor, and the reasoning behind the chosen course of action. 
+- User Feedback and Customization: Allow users to provide feedback on the explanations they receive. This can help the system learn and adapt its explanations to individual user needs, ensuring a more personalized and understandable experience. 
+- Ethical and Unbiased Data: Ensure that the data used to train the system is ethical and unbiased. Address issues of fairness, transparency, and accountability to ensure that the system's decisions and explanations are trustworthy and free from discriminatory biases. 
+- Error Handling and Recovery: Develop robust error-handling mechanisms. If a mistake occurs, provide clear and honest explanations and outline the steps to rectify the issue, ensuring user confidence is maintained even in the face of errors. 
+- Contextual Awareness: Design systems that are aware of the user's context, including their level of expertise, cultural background, and goals. This allows the system to tailor its explanations accordingly, providing relevant and meaningful information. 
+- Continuous Evaluation and Improvement</t>
         </is>
       </c>
     </row>
@@ -1292,23 +1288,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>"How can we ensure that the rapid advancements in ubiquitous computing and complex systems foster meaningful human-machine interactions, especially in the context of increasingly intelligent ambient technologies?"</t>
+          <t>"How can we make sense of the increasing complexity of ubiquitous computing and design more intuitive and understandable interactions?"</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>"How might we ensure positive, meaningful interactions with ambient tech and ubiquitous computing?"</t>
+          <t>"With complex products, how might we design interactions that remain simple and effective?"</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>To ensure that rapid advancements in ubiquitous computing and complex systems foster meaningful human-machine interactions, particularly with the rise of intelligent ambient technologies, we must consider several key factors: 
-- User-Centric Design: Placing users at the center of design processes is essential. Understanding user needs, preferences, and limitations helps create interfaces and interactions that are intuitive, accessible, and aligned with human capabilities and goals. 
-- Ethical and Social Considerations: Addressing ethical implications and social impacts is crucial. This includes ensuring privacy, security, and transparency in data handling, as well as considering potential biases in algorithms and avoiding unintended consequences that may negatively affect specific populations or reinforce existing inequalities. 
-- Contextual Awareness: Ambient intelligence technologies should be contextually aware, adapting to users' physical and social environments. By understanding users' contexts, systems can provide relevant and timely assistance, enhancing the natural flow of human activities rather than interrupting them. 
-- Interoperability and Standards: Developing interoperability standards across devices, platforms, and systems promotes seamless integration and connectivity. This enables a more cohesive ecosystem of technologies that can work together to support human activities in a harmonious manner. 
-- Personalization and Adaptability: Allowing for personalization enables users to customize their interactions based on individual preferences and skills. Adaptable systems can also learn and evolve with users over time, providing an opportunity for long-term growth and a more natural relationship with technology. 
-- Evaluation and Feedback: Implementing robust evaluation methodologies and feedback loops</t>
+          <t>To make sense of the increasing complexity of ubiquitous computing and design more intuitive interactions, we can consider the following approaches: 
+- Embrace Simplicity: Simplify the user interfaces and interactions as much as possible. Strive for clarity and ease of use by eliminating unnecessary steps, options, and complexity. 
+- User-Centric Design: Put the user at the center of the design process. Understand their needs, behaviors, and limitations to create interactions that are natural and intuitive for them. 
+- Standardization and Consistency: Establish consistent patterns, visual language, and interaction models across different interfaces and devices. Consistency helps users develop mental models and transfer their knowledge and skills from one interaction to another. 
+- Contextual Awareness: Leverage context-aware computing to adapt interfaces and interactions dynamically based on the user's environment, location, and current task. By understanding the context, we can provide more relevant and timely information, simplifying the user experience. 
+- Natural User Interfaces: Explore natural user interfaces that leverage gestures, touch, voice, and other natural input methods. These interfaces can be more intuitive and accessible, especially for users who are unfamiliar or uncomfortable with traditional input devices. 
+- Prototyping and Usability Testing: Employ rapid prototyping and iterative design processes. By testing designs with real users, we can gather feedback and refine the interactions to ensure they are understandable and usable. 
+- Collaborative Design: Bring together diverse expertise, including interaction designers, software engineers,</t>
         </is>
       </c>
     </row>
@@ -1380,25 +1377,26 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>"How can we ensure that complex algorithms, like those used in Deep Learning and neural networks, are fair, accountable, and transparent, especially when they are used to make important decisions that impact people's lives?"</t>
+          <t>"As neural networks and deep learning continue to evolve, how can we ensure that these models are not only accurate but also interpretable, fair, and accountable? The demand for responsible AI has never been more urgent."</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>"How can we ensure fairness and transparency in these algorithms and what steps are needed?"</t>
+          <t>"Identify the key ethical principles for responsible AI and outline a step-by-step process for their practical implementation."</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Ensuring the fairness, accountability, and transparency of complex algorithms used in Deep Learning and neural networks is a critical challenge, especially when these algorithms are increasingly making important decisions that impact people's lives. Here are some key approaches to address this: 
-- Diverse and Ethical Data: Start with ensuring diverse, representative, and ethically sourced data. Bias can creep into algorithms when the training data reflects societal biases or stereotypes. Thus, using comprehensive and inclusive data that respects individual privacy and consent can help create more equitable algorithms. 
-- Algorithmic Impact Assessments: Conduct rigorous assessments of the potential impacts of these algorithms, similar to how environmental impact assessments are done for construction projects. This includes examining the data, the algorithm's design, and its potential consequences on different groups of people. Such assessments can identify risks and ensure that appropriate measures are taken to mitigate negative impacts. 
-- Explainable AI: Develop techniques to explain the "black box" nature of complex algorithms. This involves creating methods and tools that can interpret and communicate how these algorithms arrive at specific decisions or outcomes. Explainable AI enhances trust and understanding, enabling users and regulators to verify fairness and accuracy. 
-- Independent Review and Regulation: Establish independent review boards comprising experts from various fields, including ethics, law, and computer science. These boards can oversee the development and deployment of such algorithms, ensuring they adhere to fairness, accountability, and transparency standards. Additionally, regulations and guidelines should be put in place to hold developers and users of</t>
+          <t>To ensure that neural networks and deep learning models are not only accurate but also interpretable, fair, and accountable, a comprehensive approach that addresses various aspects of model development and deployment is necessary: 
+- Interpretability: Interpretability in machine learning refers to the ability to explain or understand the reasons behind a model's predictions or decisions. Techniques like layer-by-layer analysis, attention mechanisms, and rule-based systems can help improve interpretability. 
+- Fairness: Fairness in AI aims to ensure that models do not perpetuate or amplify existing biases and inequalities. This involves careful data collection and preprocessing, as well as regular audits and bias assessments of the models. Diverse and inclusive teams are crucial in identifying and mitigating potential biases. 
+- Accountability: Accountability entails ensuring that those responsible for AI systems are identifiable and can be held responsible for any issues or consequences that arise. Clear documentation, robust testing, and continuous monitoring are key aspects of ensuring accountability. Additionally, establishing guidelines and regulations for AI development and usage can provide a framework for ethical and legal responsibility. 
+- Collaboration and Education: Encouraging collaboration between various stakeholders, including technologists, social scientists, legal experts, and ethicists, can help address the complex challenges of responsible AI. Educating developers, users, and the general public about the potential risks and ethical implications of AI is also crucial in fostering a culture of responsible AI development and usage. 
+- Ethical Guidelines and Regulations: Organizations and governments can play a vital</t>
         </is>
       </c>
     </row>
@@ -1501,25 +1499,27 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>"How can we ensure that algorithms are held accountable, especially given the concerns surrounding big data privacy and the increasing automation of news media?"</t>
+          <t>How can we ensure that the increasing automation of news media and the use of algorithmic curation and writing do not compromise journalistic integrity and transparency?</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>What steps guarantee accountability in algorithms and mitigate data/media automation risks?</t>
+          <t>Might journalistic integrity be at risk with automation if ethical guidelines lag?</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>To ensure accountability for algorithms, especially in the context of big data privacy and automated news media, several measures can be implemented: 
-- Transparency: Algorithmic transparency involves making the inner workings of algorithms understandable and open to inspection. This can be achieved through documentation, code availability, and independent audits. Transparency helps identify potential biases, discrimination, or privacy violations within algorithms and allows for corrective actions to be taken. 
-- Ethical Review Processes: Establishing rigorous ethical review processes for algorithms can help ensure accountability. This includes conducting impact assessments, risk analyses, and regularly reviewing algorithms for unintended consequences. Ethical review boards, consisting of diverse stakeholders such as technical experts, legal scholars, social scientists, and community representatives, can provide oversight and guidance. 
-- Data Privacy Protections: Strong data privacy protections are essential to holding algorithms accountable. This includes obtaining informed consent from individuals, implementing data protection practices, and providing individuals with the right to access, correct, or delete their data. Compliance with data privacy regulations, such as the General Data Protection Regulation (GDPR) in Europe, can help ensure that algorithms are designed with privacy in mind. 
-- Media Literacy and Fact-Checking: As news media becomes increasingly automated, promoting media literacy among consumers is crucial. Educating the public about algorithmic biases, fake news, and manipulation techniques can empower them to critically evaluate the content they encounter. Additionally, supporting independent fact-checking organizations and developing automated fact-checking tools can help identify and address misleading or false content</t>
+          <t>To ensure that the increasing automation of news media and the use of algorithmic curation and writing do not compromise journalistic integrity and transparency, several measures can be implemented: 
+- Human Oversight and Review: Despite the automation, it is crucial to have human journalists and editors oversee and review the content generated by algorithms. They can identify biases, inaccuracies, or ethical concerns that an algorithm might miss. 
+- Transparent Disclosure: News organizations should clearly disclose to their audiences when and where automation is being used. This includes labeling automated content, explaining the role of algorithms in content curation and writing, and providing information about the data sources and methods used. 
+- Ethical Guidelines and Standards: Media outlets should develop and adhere to ethical guidelines specifically addressing the use of automation. These guidelines should emphasize accuracy, fairness, accountability, and transparency in algorithmic curation and writing processes. 
+- Fact-Checking and Verification: Automated systems should be complemented by robust fact-checking and verification processes. This involves verifying the accuracy of automated content, cross-referencing data sources, and employing human fact-checkers to identify and rectify potential errors or misleading information. 
+- Audience Education: It is important to educate news consumers about the presence and potential limitations of automated content. By helping audiences understand how algorithms work and what to look out for, they can become more discerning in their news consumption and critical in evaluating the information they receive. 
+- Collaboration Between Journalism and Tech Industries: Journalists and technology experts should collaborate to develop automated</t>
         </is>
       </c>
     </row>
@@ -1588,21 +1588,27 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>"Understanding the Evolution of Research Topics: A Comprehensive Analysis of CHI 2018 Papers and Their Impact on Interpretable Machine Learning."</t>
+          <t>"How does topic modeling in citing abstracts and paragraphs contribute to understanding intelligent and ambient systems within the vast landscape of machine learning research?"</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>How might CHI research shape interpretable ML's future, and what are the potential impacts?</t>
+          <t>How does topic modeling enhance our comprehension of intelligent systems, especially regarding ML integration?</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>The study analyzes CHI 2018 papers and their impact on the field of interpretable machine learning. It offers insights into the evolution of research topics and their impact on the field, contributing to a better understanding of the latest trends and developments in human-computer interaction and machine learning interpretability.</t>
+          <t>Topic modeling in citing abstracts and paragraphs can uncover latent themes and connections within the field of machine learning research, helping to delineate the scope and characteristics of intelligent and ambient systems. By analyzing large volumes of text data, topic models can automatically identify patterns, topics, and trends, offering a data-driven approach to understanding this vast and multifaceted domain.
+Specifically, within the realm of intelligent and ambient systems, topic modeling can illuminate the following:
+1. Research Focus and Trends: Topic models can reveal emerging research directions and trends unique to intelligent and ambient systems. By analyzing abstracts and paragraphs, it becomes possible to identify the prominent themes and shifts in focus over time, helping researchers and practitioners stay abreast of the latest developments.
+2. Conceptual Boundaries and Relationships: These models can delineate the conceptual boundaries and relationships between intelligent and ambient systems and other related fields within machine learning. This helps establish a clearer understanding of the field's scope, distinct characteristics, and potential interdisciplinary connections.
+3. Knowledge Synthesis: This technique aids in synthesizing vast amounts of information, uncovering hidden connections, and providing a comprehensive overview. By aggregating and organizing research contributions, topic models enable easier identification of knowledge gaps, conflicting findings, or areas ripe for further exploration.
+4. Comparative Analysis: Topic modeling allows for comparisons between different subfields or aspects of intelligent and ambient systems. This facilitates the identification of similarities, differences, and potential transferrable insights, fostering a more nuanced understanding of the field.
+5</t>
         </is>
       </c>
     </row>
@@ -1648,23 +1654,21 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>"Unveiling the Latest Trends in CHI 2018: From Intelligent Interfaces to Interpretable ML."</t>
+          <t>"Unveiling the CHI 2018 Paper's Insights: A Journey through Interaction Design, Machine Intelligence, and the Human Psyche."</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>If you attended CHI 2018, what topics do you think would be covered?</t>
+          <t>What was the central theme of the CHI conference paper in 2018?</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>The CHI Conference on Human Factors in Computing Systems is an annual international conference that serves as a platform for researchers and practitioners to showcase their latest work and discuss emerging trends and developments in the field of human-computer interaction (HCI).
-The CHI 2018 conference highlighted a range of topics, including intelligent interfaces and interpretable machine learning (ML). Intelligent interfaces refer to user interfaces that incorporate artificial intelligence to enhance user interactions and provide more natural and intuitive experiences. Interpretable ML focuses on developing algorithms and models that can explain their decisions and predictions, improving transparency and trust in machine learning systems.
-The conference likely featured a variety of presentations, workshops, and discussions centered around these themes, showcasing the latest research, designs, and innovations in the field. By bringing together experts and enthusiasts, CHI 2018 provided a valuable forum for exploring the future of HCI and its potential impact on various industries and domains.</t>
+          <t>The paper presents a comprehensive exploration of the intersection of interaction design, machine intelligence, and the human psyche, offering valuable insights and contributions to the field of human-computer interaction.</t>
         </is>
       </c>
     </row>
@@ -1765,25 +1769,24 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>"How do the various sources of text—core abstracts, citing abstracts, and citing paragraphs—contribute to understanding the relationship between topics in the field of intelligent and ambient systems research?"</t>
+          <t>Here is a statement that could be used in marketing or promotional material for a technology company: 
+"With our innovative LDA models and topic network analysis, we unlock the secrets of your text data. By visualizing complex relationships and uncovering dominant patterns, we provide profound insights that drive your business forward. It's time to discover the power of your data with our cutting-edge text analysis solutions."</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>What do these sources reveal about relationships within this field?</t>
+          <t>How can a tech company best promote its LDA models and text analytics tools?</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>The various sources of text, including core abstracts, citing abstracts, and citing paragraphs, all play a crucial role in understanding the relationship between topics in the field of intelligent and ambient systems research. 
-* Core abstracts provide a concise overview of the key themes and contributions of a research paper. They offer a snapshot of the paper's focus, methodology, findings, and implications, enabling readers to quickly grasp the main concepts and their relevance to the field. 
-* Citing abstracts build upon core abstracts by providing additional context and evidence. They showcase how the ideas presented in a research paper are supported, challenged, or extended by other scholars in subsequent publications. By examining citing abstracts, we can trace the evolution of thoughts, identify emerging trends, and understand the broader impact and influence of specific concepts within the domain of intelligent and ambient systems. 
-* Citing paragraphs offer an even more fine-grained perspective by highlighting the exact segments of text where references to earlier work are made. This level of detail allows for a nuanced analysis of how different concepts are interrelated, compared, contrasted, or built upon. It helps to uncover the specific aspects of a research paper that resonate with other scholars and contributes to a more nuanced understanding of the intellectual connections within the field. 
-Together, these sources of text form a comprehensive narrative that illuminates the relationships, influences, and knowledge exchange that shape the dynamic landscape of intelligent and ambient systems research. By synthesizing insights from core abstracts, citing abstracts, and citing paragraphs,</t>
+          <t>Here is a possible answer that is factually aligned with the provided context: 
+"Unleash the potential of your text data with our cutting-edge LDA models and topic network analysis. Our innovative text analysis solutions are designed to uncover the hidden secrets and complex relationships within your data. By visualizing these relationships and identifying dominant patterns, we offer profound insights that can drive your business to new heights. It's time to explore the power of your data and discover the competitive advantage it can bring. Let our state-of-the-art technology unlock the value of your text data and propel your business forward." 
+This answer emphasizes the potential of text data and how the company's LDA models and topic network analysis can unlock valuable insights. It also highlights the visualization aspect, which can help businesses understand complex relationships and patterns within their data.</t>
         </is>
       </c>
     </row>
@@ -1859,24 +1862,21 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Here is a potential copywriting string based on the given context: 
-"How can we ensure ethical and transparent machine learning practices, especially in critical domains like medicine and finance, to address issues of bias, discrimination, and privacy?" 
-This question addresses the key issues and applications mentioned in the context, highlighting the importance of interpretability, algorithmic fairness, and the impact of ML in sensitive fields. It invites a discussion on the methods and theories mentioned, such as Bayesian rules, causal inference, and the exploration of counterfactual reasoning, to create more accountable and understandable ML systems.</t>
+          <t>"How can we ensure that Machine Learning (ML) systems are ethical and accountable, especially in critical domains such as medicine and finance?"</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>How might ethical, transparent ML improve patient care and protect finances?</t>
+          <t>"How can we ensure ethical ML deployment in finance and medicine?"</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Here is a response to the input you provided: 
-"To ensure ethical and transparent machine learning practices in critical domains like medicine and finance, a multi-faceted approach is necessary. Firstly, emphasizing interpretability is crucial. Interpretable models help practitioners understand the logic behind predictions or decisions, identify potential biases, and ensure the system aligns with ethical standards. Methods like decision trees, rule-based systems, and linear regression are inherently more interpretable than complex neural networks. 
-Additionally, employing techniques of algorithmic fairness is essential. This involves using algorithms that treat similar risk groups similarly and ensure that similar individuals are not discriminated against based on sensitive attributes like gender or race. One approach is to use Bayesian rules and causal inference methods, which can help identify and mitigate bias by understanding the causal relationships between variables. 
-Furthermore, encouraging the development and deployment of counterfactual explanations can enhance transparency. Counterfactual explanations provide an alternative outcome to a given input, helping users understand why a particular decision was made and what could be changed to achieve a different result. 
-Regular audits and oversight are also recommended to maintain ethical standards and address privacy concerns. This includes independent reviews of data collection, model training, and deployment processes, as well as ongoing monitoring to detect and rectify any issues promptly. 
-By combining these practices with a robust theoretical foundation, we can create accountable and understandable ML systems that benefit society without causing harm."</t>
+          <t>Ensuring the ethical and accountable development and deployment of Machine Learning (ML) systems is crucial, especially in critical domains such as medicine and finance, where the impact of these technologies can be significant and far-reaching. Here are some key strategies to promote ethical and accountable ML practices: 
+- Establish Clear Ethical Guidelines: Develop comprehensive guidelines and standards for the ethical use of ML in specific domains. These guidelines should address privacy, fairness, transparency, accountability, and non-discrimination. For example, in medicine, guidelines could ensure patient data privacy and require explainable AI to ensure doctors understand and can explain the decisions made by ML systems. 
+- Robust Review and Audit Processes: Implement rigorous review and audit processes for ML systems. This includes internal and external reviews by technical and ethical experts to identify potential biases, discrimination, or other ethical concerns. Regular audits should be conducted to ensure continued adherence to ethical standards over the system's lifecycle. 
+- Emphasize Explainability and Interpretability: Promote the development and use of explainable and interpretable ML models, especially in high-stakes domains. Interpretability allows users and regulators to understand how a model arrives at a particular decision, facilitating trust and enabling the identification of any potential biases or errors. 
+- Promote Diverse and Inclusive Development Teams: Encourage diverse and multidisciplinary teams in the development and deployment of ML systems. Diverse perspectives can help identify ethical and moral dilemmas and promote innovative solutions. Inclusion ensures that a wide range of ethical values and beliefs</t>
         </is>
       </c>
     </row>
@@ -1979,28 +1979,27 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Here is a potential statement that could be addressed by the given context: 
-"The evolution of HCI research has shed light on the emerging trends and gaps in the field, particularly regarding explainable systems. By analyzing citation and topic networks, we uncover insights that shape the future trajectory of HCI, highlighting the shift from production rules to machine learning and the growing focus on systematic accountability. How can we bridge the gap between interaction design and algorithmic fairness to create more understandable and socially impactful interfaces?"
-This statement addresses the context provided and invites further discussion on the trends, challenges, and opportunities within the field of HCI, specifically in the realm of explainable systems and the interplay between interaction design and algorithmic fairness.</t>
+          <t>"Unveiling the Trends: From Production Rules to Machine Learning Evolution"
+The evolution of explainable systems in HCI has unveiled intriguing trends. One such trend is the shift from production rules to the realm of machine learning. While older methods of explaining machine learning models were closely tied to expert systems and Bayesian networks, the new cluster on Interpretable ML seems to be charting its own course. This raises questions and presents opportunities: Are the new approaches completely dissociated from the past, or is there room for integration? Have we fully leveraged the insights from rule extraction, an ancient yet evolving field, in our quest for interpretable ML and FAT? 
+This trend underscores the importance of reflecting on past research and revisiting methods that could offer fresh perspectives and solutions for current challenges. By delving into the history of our field, we may uncover hidden gems that can inform our present and future endeavors. 
+The provided context offers a fascinating insight into the world of HCI and its intersection with explainable systems, machine learning, and fairness. It presents an opportunity to explore the trends, trajectories, and potential gaps in our understanding, ultimately informing future research directions.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>How can we ensure a positive user experience while also maintaining ethical AI standards in next-gen interfaces?</t>
+          <t>"How can revisiting rule extraction enhance our ML models, and what potential benefits might we uncover?"</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Here is an answer that is factually aligned with the provided context:
-The statement effectively captures the key trends and challenges within the evolution of HCI research, especially concerning explainable systems. By analyzing citation and topic networks, we can uncover valuable insights that shape the future direction of HCI. 
-One notable trend highlighted is the shift from traditional production rules to machine learning approaches in HCI systems. This evolution brings with it a new set of challenges and opportunities, particularly in addressing the gap between interaction design and algorithmic fairness. As HCI continues to impact a wide range of domains, ensuring that systems are not only effective but also understandable and socially impactful becomes crucial. 
-The statement invites further discussion on how we can bridge the gap between these two important areas. One potential approach is to advocate for a co-design process that involves collaboration between interaction designers, algorithm developers, and stakeholders from a diverse range of backgrounds. By bringing together expertise in human-centered design and algorithmic development, we can create interfaces that are not only technically sophisticated but also align with ethical and social values. 
-Additionally, the development of evaluation methodologies that assess the understandability and social impact of interfaces can help bridge this gap. By considering the potential consequences of algorithmic decisions on different communities and individuals, we can identify and address biases and ensure that HCI systems are accountable and fair. 
-In summary, the statement provides a thoughtful overview of the evolving landscape of HCI, especially in the realm of explainable systems, and raises important questions</t>
+          <t>The input text provides an interesting perspective on the evolution of explainable systems in HCI, specifically the shift from production rules to machine learning. It raises important questions about the relationship between new and old approaches to interpreting machine learning models. 
+One key question is whether the latest methods in Interpretable ML are completely separate from traditional expert systems and Bayesian networks, or if there is room for integration and learning from past methodologies. This trend highlights the potential value of revisiting historical research and techniques, as well as exploring the history of the field, to uncover valuable insights that could be applied to current challenges. 
+Furthermore, the text hints at the importance of understanding the trends, trajectories, and gaps in our knowledge about explainable systems and their intersection with machine learning and fairness. By doing so, we can better direct future research and develop more effective and interpretable systems. 
+The text, therefore, encourages a thoughtful examination of the past as a means to enhance our understanding and applications of machine learning in HCI.</t>
         </is>
       </c>
     </row>
@@ -2070,30 +2069,24 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>"How can we ensure that advancements in Explainable AI and Interpretable Machine Learning are socially accountable and trustworthy? As we strive for rigorous and usable intelligibility, it's essential to consider the human factor and real-world applicability. By drawing insights from social sciences and cognitive psychology, how can HCI research bridge the gap between complex models and user-friendly explanations to build institutional trust?"</t>
+          <t>"How can we ensure that Explainable AI aligns with societal accountability and addresses the shift towards institutional trust? Are current mathematical models sufficient, or do we need to incorporate insights from social sciences to make XAI more usable and practical for real-world applications?"</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>"How can Explainable AI and Interpretable ML build institutional trust?"</t>
+          <t>"Explain XAI's role in building trust and ensuring social accountability."</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>To ensure that advancements in Explainable AI (XAI) and Interpretable Machine Learning (IML) are socially accountable and trustworthy, we must address the challenge of translating complex models into user-friendly explanations that are accessible, understandable, and actionable for diverse stakeholders. Here are some strategies to bridge the gap between complex models and user-friendly explanations, thereby building institutional trust:
-- **Collaborative HCI and Social Sciences Approach:** 
-   - Integrate expertise from social sciences, cognitive psychology, and human-computer interaction (HCI) domains. This involves actively involving social scientists and psychologists in the design and evaluation of XAI and IML systems. 
-   - Draw insights from social sciences to understand societal needs, cultural contexts, and ethical implications, ensuring that explanations are culturally sensitive and socially responsible.
-- **Usability and User-Centered Design:**
-   - Adopt a user-centered design approach to create intuitive and user-friendly interfaces for interacting with AI systems. Ensure that explanations are presented in a format that considers users' cognitive limitations and abilities. 
-   - Conduct usability testing and iterative design to refine the explanation interfaces based on user feedback, ensuring that they are effective and accessible to the intended audience.
-- **Transparent and Explainable by Design:**
-   - Promote transparency and interpretability in AI models by design. Encourage the development of inherently more explainable models or hybrid systems that combine interpretable and complex models. 
-   - Provide explanations at different levels of abstraction, catering to both</t>
+          <t>To ensure Explainable AI (XAI) aligns with societal accountability and addresses institutional trust, a multidisciplinary approach is necessary. While current mathematical models provide a solid foundation for XAI, incorporating insights from social sciences is crucial to making XAI more usable and practical for real-world applications. 
+Social sciences, such as sociology, psychology, and anthropology, offer valuable perspectives on human behavior, ethics, and the societal impact of technology. By integrating these insights, XAI developers can better understand the social context in which their technologies are deployed and the potential consequences of their use. This includes considerations of fairness, bias, privacy, and transparency, which are essential for maintaining trust and accountability. 
+Additionally, social sciences can inform the design and evaluation of XAI systems to make them more accessible and useful for diverse stakeholders, including policymakers, industry regulators, and the general public. This could involve developing clear and effective communication strategies for explaining complex AI decisions and ensuring that XAI solutions align with societal values and ethical frameworks. 
+In conclusion, a multidisciplinary approach that combines mathematical rigor with social science insights is key to creating socially accountable and trusted XAI systems that are aligned with the needs and values of society.</t>
         </is>
       </c>
     </row>
@@ -2197,27 +2190,27 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>"How can we create dynamic and interactive explanation interfaces that are tailored to different user groups and effectively communicate complex algorithmic decisions?"</t>
+          <t>"How can we create dynamic and interactive explanations for complex algorithmic decision-making processes, ensuring a broad audience can understand and explore these systems?"</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>"Designing adaptable interfaces with clear guidance could potentially enhance user experiences and satisfaction."</t>
+          <t>If we simplified complex algorithms, would the public engage more with the explanation?</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>To create dynamic and interactive explanation interfaces that cater to different user groups and effectively communicate complex algorithmic decisions, we can follow these steps: 
-- Identify Target User Groups: Understand the diverse needs and preferences of your target audience. This may include considering factors such as age, technical proficiency, cultural background, and specific requirements (e.g., accessibility options). 
-- User-Centered Design: Adopt a user-centered design approach. Conduct user research, focus groups, and interviews to gather insights on how different users interact with explanatory interfaces. Use this feedback to design interfaces that align with their expectations and capabilities. 
-- Dynamic Content and Visualization: Utilize dynamic content generation techniques to create explanations that can adapt to different user profiles. Incorporate interactive visualizations, such as diagrams, animations, and interactive examples, to illustrate complex algorithmic processes and decisions. 
-- Personalization and Adaptivity: Implement personalized interfaces that can learn and adapt to individual user needs. This could include offering customizable explanations, allowing users to set their complexity preferences, and providing interactive elements that respond to user interactions. 
-- Clear and Concise Language: Ensure that the language used in the interface is clear, concise, and understandable for the intended audience. Avoid jargon or technical terms that may be unfamiliar to certain user groups. Provide definitions or tooltips for essential concepts. 
-- Interactive Guidance and Exploration: Design the interface to provide guidance and facilitate exploration. Implement step-by-step tutorials, interactive demonstrations, and interactive</t>
+          <t>To create dynamic and interactive explanations for complex algorithmic decision-making processes, we can employ a combination of visualization techniques, interactive tools, and simplified narratives. 
+Here are some strategies to consider: 
+1. Visualizations and Simulations: Use visual aids such as flowcharts, diagrams, and animations to illustrate the step-by-step process of the algorithm. Visualizations can help abstract concepts come to life and make complex relationships more tangible. Simulations allow users to input different parameters and see the algorithm in action, facilitating a deeper understanding. 
+2. Interactive Elements: Develop web-based or application-based interfaces that allow users to explore the decision-making process through interactive elements. This can include sliders, buttons, and drag-and-drop functions that let users manipulate variables and immediately see the impact on the algorithmic output. 
+3. Simplified Language and Analogies: Avoid technical jargon and explain complex concepts using simplified language and relatable analogies. For example, comparing an algorithm to a recipe with ingredients (input data) and cooking instructions (process) leading to a final dish (output). This helps bridge the gap between expert knowledge and lay understanding. 
+4. Step-by-Step Breakdown: Decompose the algorithm into manageable chunks and explain each step clearly and concisely. Use a narrative structure to guide users through the process, providing context and rationale for each decision point. 
+5. Interactive Tutorials and Quizzes: Engage users with interactive tutorials that provide immediate feedback and allow</t>
         </is>
       </c>
     </row>
@@ -2288,20 +2281,21 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>"How can we ensure that advances in machine learning and artificial intelligence are designed with intelligibility and usability in mind, benefiting society at large?"</t>
+          <t>"How can we ensure that advancements in machine learning and artificial intelligence are designed with intelligibility and transparency at their core, benefiting society as a whole?"</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>"Discuss ways to ensure equitable distribution of AI and ML's perks."</t>
+          <t>"What strategies can ensure AI ethics and ML's societal benefits are fully realized?"</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>To ensure that advances in machine learning and artificial intelligence (AI) benefit society at large, several key considerations should be made. Firstly, it is essential to involve a diverse range of stakeholders in the development process, including ethicists, social scientists, legal experts, and users. This helps identify potential ethical, legal, and social implications and ensures that the technology is developed with a holistic understanding of its impact. 
-Additionally, adopting principles of responsible AI development is crucial. This includes promoting transparency and explainability in AI systems, ensuring that their inner workings are understandable to users and regulators. It also entails addressing bias and fairness in data and algorithms, as well as considering the potential consequences of AI on employment and economic equality. 
-Furthermore, creating feedback loops and continuous improvement processes is vital. This involves monitoring the real-world impact of deployed AI systems and using that information to improve future iterations, ensuring that the technology remains beneficial and aligned with society's needs and values. 
-Finally, fostering a culture of collaboration and knowledge sharing between developers, researchers, and the wider public can help ensure that AI advances are accessible and beneficial to all. This includes providing education and resources to the public, as well as encouraging participation in the development and governance of AI technologies. By considering these aspects, we can work towards creating a future where machine learning and AI are designed with intelligibility, usability, and the public good at their core.</t>
+          <t>To ensure that advancements in machine learning and artificial intelligence (AI) benefit society as a whole, it is crucial to prioritize intelligibility and transparency in their design. Here are a few key approaches to achieve this: 
+**1. Explainable AI:** Develop techniques and methods that enable AI systems to explain their decisions and actions in a manner understandable by humans. This includes providing interpretable models, decision trees, or rule-based systems that offer insights into the underlying logic and factors considered by the AI. 
+**2. Open Data and Code:** Foster a culture of openness and sharing within the AI community. Make data and code used in AI development and training publicly available, enabling scrutiny, feedback, and improvement. This approach not only helps identify biases or ethical concerns but also encourages collaboration and the development of more robust and transparent systems. 
+**3. Ethical Guidelines and Regulation:** Establish ethical guidelines and regulations for the development and deployment of AI technologies. These guidelines should emphasis the importance of intelligibility and transparency, addressing issues like bias, privacy, fairness, and accountability. Regulations can ensure that AI systems are developed responsibly and held to high standards, with potential penalties for non-compliance. 
+**4. Diverse and Inclusive Teams:** Ensure that AI development teams are diverse and inclusive, comprising individuals from various backgrounds, disciplines, and ethical perspectives. Such teams are better equipped to identify potential biases, ethical dilemmas, and societal implications of their work, leading to more robust and beneficial designs.</t>
         </is>
       </c>
     </row>
@@ -2398,22 +2392,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>"How can we ensure that the rapidly evolving fields of AI, machine learning, and human-computer interaction are developed in a way that is ethical, transparent, and fair, especially in the context of smart energy systems and personal data?"</t>
+          <t>"How can we ensure that advancements in AI and complex cognition are not only effective but also ethical and transparent, benefiting society as a whole?"</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>"What practices and steps ensure ethical AI development for personal data and energy apps?"</t>
+          <t>"Outline the process to ensure AI is ethical, transparent, and beneficial."</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>To ensure the ethical development and application of AI, machine learning, and human-computer interaction in smart energy systems and personal data contexts, several key considerations and strategies can be implemented: 
-- Establish Clear Guidelines and Regulations: Develop comprehensive guidelines and regulations that address ethical concerns, privacy, data protection, fairness, and transparency. These guidelines should be regularly updated to keep pace with technological advancements and evolving societal expectations. 
-- Foster Multi-stakeholder Collaboration: Engage with a diverse range of stakeholders, including technical experts, ethicists, social scientists, legal professionals, energy sector specialists, and consumer advocacy groups. By involving multiple perspectives, it becomes possible to identify and address a broader range of ethical considerations. 
-- Emphasize Explainability and Transparency: Promote the development and deployment of explainable AI and machine learning models. Ensure that the logic and decision-making processes of these systems are understandable to both developers and users. This transparency helps build trust and allows for better identification and mitigation of potential biases or ethical concerns. 
-- Protect Personal Data: Implement robust data protection measures to safeguard individuals' privacy. Obtain informed consent, minimize data collection practices, and ensure secure storage and transmission of personal data. Give users more control over their data and provide them with options to opt out of certain data usages. 
-- Ensure Fairness and Bias Mitigation: Address issues of bias in data, algorithms, and system design to prevent discrimination and ensure equitable outcomes. Regularly audit systems for potential biases</t>
+          <t>To ensure that advancements in AI and complex cognition are ethical and beneficial to society as a whole, a multi-faceted approach is necessary. 
+Firstly, it is crucial to involve diverse stakeholders in the development and deployment process. This includes ethicists, social scientists, legal experts, and community representatives, in addition to technical experts. By incorporating diverse perspectives, potential ethical pitfalls can be identified and addressed early on, and the benefits of AI can be distributed more equitably across society. 
+Secondly, transparency and explainability are key. The inner workings of AI systems, particularly those with significant impact on people's lives, should be understandable not just to experts but also to those affected by them. This helps build trust and also enables better identification and correction of biases or errors. 
+Thirdly, robust governance frameworks are essential. This includes regulations that ensure accountability and compliance with ethical standards, as well as mechanisms for independent oversight and auditing of AI systems. Incentives and penalties can be used to encourage ethical behavior and deter misuse or abuse of AI technology. 
+Furthermore, ongoing research and dialogue are needed to continually update and refine our understanding of ethical AI. This includes exploring the potential impact of AI on different sectors and populations, as well as developing tools and methodologies to support ethical AI practices, such as bias detection and mitigation techniques, privacy-preserving algorithms, and fair decision-making systems. 
+Finally, education and engagement with the public are vital. Increasing public awareness and literacy about</t>
         </is>
       </c>
     </row>
@@ -2494,20 +2488,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>"How do machine learning and network analysis techniques aid in understanding complex systems, from healthcare to energy demand?"</t>
+          <t>"How does combining rich user interaction and machine learning help make sense of large network data?"</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>How do we use network analysis and machine learning to understand complex systems?</t>
+          <t>How can combining interactive UI with ML improve data analysis for large networks? Explain with examples.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Machine learning and network analysis techniques are invaluable for understanding complex systems across various domains, including healthcare and energy demand. 
-In healthcare, machine learning algorithms can analyze vast amounts of patient data, identifying patterns and correlations that could improve diagnosis and treatment. For example, machine learning models can predict the risk of developing specific diseases, recommend personalized treatment plans, or identify potential drug interactions. Network analysis, on the other hand, can help understand the complex relationships between different physiological systems, diseases, and their risk factors, leading to a more holistic understanding of health and potential interventions. 
-Regarding energy demand, machine learning can forecast short-term and long-term energy requirements by analyzing historical data, weather patterns, economic trends, and other relevant factors. This helps energy providers optimize their generation and distribution strategies. Machine learning can also identify patterns of energy usage and wastage, leading to more efficient systems. Network analysis can be applied to the energy grid, treating it as a complex network of interconnected entities. This analysis can reveal vulnerabilities and inefficiencies, helping to make the grid more resilient and optimized. 
-In both domains, these techniques provide valuable insights that traditional methods might struggle with, helping to make more informed decisions and improve overall system performance and efficiency.</t>
+          <t>By combining rich user interaction and machine learning, we can develop intelligent systems that can understand and interpret large network data in a meaningful way. 
+User interaction is crucial as it provides context, labels, and feedback that machine learning algorithms can learn from. For example, users can help annotate data, providing labels for classification or identifying important features. This supervised learning approach enables machines to learn patterns and make sense of unstructured data. 
+On the other hand, machine learning algorithms can process vast amounts of data, identifying complex patterns and relationships that might be invisible to human analysts. By applying these algorithms to large network data, we can uncover hidden insights, make predictions, or detect anomalies. 
+The combination of these two approaches allows for an intelligent system that can understand the context, nuances, and intentions behind user interactions, while also processing and interpreting large volumes of data quickly and accurately. This leads to more efficient and effective decision-making, especially in fields like network security, fraud detection, or social network analysis, where understanding patterns and relationships is crucial.</t>
         </is>
       </c>
     </row>
@@ -2602,22 +2596,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>"How might we better understand and design for user interaction with smart devices and systems in ambient spaces, considering issues of transparency, trust, and proactive behaviour?"</t>
+          <t>"How can we improve user experience and trust in interactive data exploration and visual analytics?"</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>How could we best enhance user experiences with smart technology?</t>
+          <t>How can data visualization enhance user experience and build trust? Elaborate the key strategies.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>To better understand and design for user interaction with smart devices and systems in ambient spaces, we should consider the following key factors: 
-- Transparency: Ensure that the system's functionality and data usage are transparent to the user. This includes clear communication of data collection practices, system capabilities, and potential limitations. Users should be able to easily access this information and understand how their data is being utilized. 
-- Trust: Build user trust by prioritizing data security and privacy. Implement robust data protection measures and give users control over their data through customizable privacy settings. This fosters a sense of confidence and encourages users to fully engage with the system. 
-- Proactive Behavior: Design the system to be proactive in providing relevant information and suggestions without being overly intrusive. This can be achieved through personalized settings, allowing users to define the level of proactiveness they prefer. The system should also be adaptive, learning from user behavior to anticipate needs and provide timely and useful interventions. 
-By addressing these issues, we can create smart device and system interactions that are not only functional but also respectful of user privacy, fostering a sense of trust and long-term user engagement. 
-Additionally, involving users in the design process, through co-design workshops or user testing, can provide valuable insights and feedback for creating positive and meaningful user experiences in ambient spaces.</t>
+          <t>To enhance user experience and foster trust in interactive data exploration and visual analytics, it is essential to focus on several key aspects: 
+- Usability: Ensure that the interface is intuitive and easy to navigate. Users should be able to efficiently and effectively interact with the data visualization tools and understand the presented information. Clear labels, concise instructions, and a logical flow can greatly improve the usability of the platform. 
+- Performance: The system should be optimized to handle large datasets and complex queries without significant delays. Quick loading times and responsive interactions are crucial for maintaining user engagement and trust. Regular performance testing and optimization can help identify and address any bottlenecks. 
+- Data Accuracy and Consistency: Verify and validate the data to ensure accuracy and consistency. Inaccurate or outdated data can lead to erroneous conclusions and damage user trust. Implement data validation checks, employ data cleaning techniques, and provide clear data sources and methodology to enhance transparency. 
+- Interactive Features: Incorporate interactive elements that allow users to explore and manipulate data. This includes tools for filtering, sorting, drilling down, and customizing visualizations. Users should be able to gain insights and answer their own questions through these interactive features. 
+- Visual Design: Utilize visual design principles to create aesthetically pleasing and easily interpretable visualizations. This includes the effective use of color, typography, and layout to convey information clearly. Ensure that visualizations are not overly cluttered and that visual cues, such as charts, graphs, and icons, are used appropriately to</t>
         </is>
       </c>
     </row>
@@ -2694,26 +2688,26 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>"How do we ensure algorithmic transparency and intelligibility while maintaining the integrity of complex learning systems?" 
-This question addresses the context provided, particularly regarding the works of Datta et al., Dey and Newberger, and Diakopoulos, which touch on themes of algorithmic transparency, context-aware intelligibility, and accountability in algorithmic decision-making. It invites discussion on the challenges and approaches to achieving transparency without compromising the effectiveness and complexity of the algorithms and systems involved.</t>
+          <t>"As technology advances, how can we ensure algorithmic transparency and hold AI systems accountable for their actions? Explore the evolving field of explainable AI and its potential impact on society."</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>"How can we balance transparency and simplicity in algorithms without compromising integrity?"</t>
+          <t>How can we ensure accountability and transparency as AI continues to advance?</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>To ensure algorithmic transparency and intelligibility while maintaining the integrity of complex learning systems, a multifaceted approach that involves technical, ethical, and procedural considerations is necessary. 
-Firstly, providing documentation and context for algorithms is essential. This includes explaining the purpose, design choices, assumptions, and limitations of the algorithm to ensure that those using and interpreting its output have a clear understanding of its capabilities and potential biases. Standardizing documentation practices and adopting frameworks like the Datasheets for Datasets or Model Cards can aid in comprehensive reporting. 
-Secondly, adopting interpretable machine learning techniques is crucial. This involves utilizing algorithms that are inherently more interpretable, such as decision trees or rule-based systems, or employing post-hoc interpretability methods like feature importance analysis or local interpretability models. By understanding the logic and rules behind predictions, we can better identify and rectify potential biases or errors. 
-Additionally, procedural safeguards and accountability measures are vital. This includes conducting regular audits and impact assessments of algorithmic systems, as well as implementing feedback loops that allow for continuous improvement and course correction. Establishing governance structures that involve diverse stakeholders, including ethical, legal, and technical experts, can help ensure that algorithmic systems are deployed and maintained responsibly. 
-Furthermore, context-aware intelligibility, as proposed by Dey and Newberger, is significant. This involves recognizing that interpretability may vary depending on the user's context and expertise. Therefore, providing customization and flexibility in the presentation of algorithmic outputs, such as through interactive visualizations or</t>
+          <t>The field of Explainable AI (XAI) is a crucial area of focus as technology advances and AI becomes more powerful. Ensuring algorithmic transparency and accountability is essential for maintaining trust and ethics in AI systems. 
+Here are some key ways to promote algorithmic transparency and hold AI systems accountable: 
+1. Interpretable Models: Develop AI models that are inherently interpretable. This means that the inner workings of the model are understandable to humans, allowing for easier explanation of its decisions and actions. Techniques like decision trees, rule-based systems, and linear regression are examples of interpretable models. 
+2. Explainability Techniques: For more complex models like deep neural networks, develop post-hoc explainability techniques. These techniques aim to explain the decisions made by an already-trained model. Examples include LIME (Local Interpretable Model-agnostic Explanations), SHAP (Shapley Additive explanations), and layer-by-layer decomposition of neural network decisions. 
+3. Model Documentation: Implement rigorous documentation practices for AI systems. This includes recording the data used for training, the model architecture, hyperparameters, and any evaluations or tests performed. This documentation helps provide a clear trail for auditing and understanding the AI system's behavior. 
+4. Regulatory Frameworks: Work with policymakers and regulators to develop frameworks that ensure AI accountability. This includes defining ethical guidelines, data privacy standards, and requirements for explainability in AI systems. For example, the EU's General Data Protection Regulation (GDPR</t>
         </is>
       </c>
     </row>
@@ -2807,26 +2801,27 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>"How can we design technology that is both functional and aesthetically pleasing, while also ensuring user privacy and trust?"</t>
+          <t>"How can we effectively balance the aesthetics of design with meaningful action in the era of ubiquitous computing?"</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Could we develop technology that ensures user privacy and remains aesthetically pleasing and functional?</t>
+          <t>"Can we make tech functions as appealing as aesthetics in product design?"</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>To design technology that is both functional and aesthetically pleasing, while also safeguarding user privacy and trust, a multifaceted approach is necessary. Here are some key considerations: 
-- User-Centric Design: Begin by understanding user needs and preferences. Involve users in the design process through research, interviews, and focus groups. This helps ensure that the technology is not only functional but also aligns with the user's aesthetic preferences. 
-- Privacy by Design: Incorporate privacy protections from the initial stages of technology design. This includes implementing secure data storage and transmission methods, minimizing data collection, and providing users with transparency and control over their personal information. 
-- Secure and Reliable Functionality: Ensure that the technology functions securely and reliably. This involves regular security audits, penetration testing, and implementing industry-standard security measures. Additionally, provide users with clear and concise information about the technology's functionality, any potential risks, and how their data is protected. 
-- Aesthetics with a Purpose: Consider the visual appeal of the technology, ensuring it is modern and sleek but also intuitive and user-friendly. The design should enhance the user experience without compromising functionality. A well-designed interface can build trust and encourage users to engage more confidently with the technology. 
-- Transparency and User Control: Build trust by being transparent about data practices and providing users with control over their privacy settings. Allow users to easily access and modify their personal information, and provide clear explanations of how their data is used and shared.</t>
+          <t>To balance aesthetics and meaningful action in the era of ubiquitous computing, we must prioritize user-centric design. Here are a few strategies to achieve this balance: 
+- Seamless Integration: Ensure that technology blends seamlessly into our surroundings. This means creating devices and interfaces that are unobtrusive, intuitive, and naturally integrated into our daily lives. 
+- Contextual Awareness: Develop systems that are contextually aware. By understanding user behavior, preferences, and environmental factors, technology can adapt its functionality and design to provide relevant and meaningful interactions. 
+- Human-Centered Design: Emphasize the user's needs, desires, and limitations in the design process. This includes considering factors such as usability, accessibility, and emotional impact to create experiences that are not only functional but also engaging and enjoyable. 
+- Collaboration between Designers and Developers: Foster collaboration between designers and developers to ensure that the final product combines aesthetic appeal with functional effectiveness. By integrating design thinking and technical expertise, we can create solutions that are both beautiful and useful. 
+- Ethical Consideration: Consider the ethical implications of our designs. In the era of ubiquitous computing, privacy, security, and data ethics become even more crucial. By designing with transparency and user empowerment in mind, we can build trust and ensure that our creations have a positive impact. 
+- Iterative Refinement: Embrace an iterative design process. By continually testing, refining, and gathering user feedback, we can strike the right balance between form</t>
         </is>
       </c>
     </row>
@@ -2902,27 +2897,27 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>"How have advancements in capacitive sensing technology influenced human-computer interaction, and what design considerations are essential for creating intuitive and accessible user experiences?"</t>
+          <t>"As we navigate an increasingly AI-driven world, how can we ensure that algorithmic decision-making remains transparent and accountable, upholding the 'right to explanation' for all?"</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>How has capacitive sensing influenced HCI, and what are the essential design factors for a seamless UX?</t>
+          <t>"What steps can ensure everyone understands AI decisions and their rights?"</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Advancements in capacitive sensing technology have had a significant impact on human-computer interaction, offering new ways for people to interact with digital devices. Capacitive sensing allows devices to detect and respond to touch or gestures, enabling more intuitive and natural user experiences. 
-When creating intuitive and accessible user experiences, several design considerations are essential: 
-- **Accuracy and Sensitivity**: Ensure that the capacitive sensors are accurately calibrated and sensitive enough to detect intended interactions without being overly sensitive to cause false triggers. 
-- **User Feedback**: Provide clear and immediate feedback to users when their interactions are recognized. This can be in the form of visual cues (e.g., animation), auditory cues (e.g., click sounds), or haptic feedback (e.g., vibration). 
-- **Gestural Interactions**: Explore the use of gestures to enhance the user experience. Common gestures like tapping, swiping, or pinching are intuitive and widely understood, but you can also define unique gestures for specific actions within your interface. 
-- **Accessibility**: Consider users with disabilities and ensure that interactions are accessible. For example, individuals with motor control issues may have trouble with precise touch gestures, so offering adjustable sensitivity settings or alternative interaction methods can improve accessibility. 
-- **Contextual Awareness**: Understand the context in which the device is being used and adapt the interface accordingly. For example, a capacitive touch interface might offer larger touch targets when a device is in motion, making it</t>
+          <t>To ensure transparency and accountability in algorithmic decision-making, several key measures can be implemented: 
+- Explainable AI (XAI): Develop and employ AI systems that provide clear and understandable explanations for their decisions and actions. This helps users comprehend how the algorithm arrived at a particular conclusion and identifies any potential biases or errors. 
+- Audit and Review Processes: Implement regular audits and reviews of algorithmic systems by independent experts. These audits should assess the algorithms' performance, fairness, and potential impact on different stakeholders. Any issues or concerns identified should be addressed and communicated transparently. 
+- User Feedback and Redress Mechanisms: Establish user-friendly feedback channels and redress mechanisms. This allows individuals affected by algorithmic decisions to seek explanations, challenge outcomes, and provide feedback on the process. Their concerns should be addressed in a timely and responsive manner. 
+- Regulatory Frameworks: Collaborate with policymakers and regulatory bodies to develop comprehensive frameworks that govern the development and deployment of AI systems. These frameworks should include guidelines for ethical design, testing, and ongoing monitoring, with enforcement mechanisms to ensure compliance. 
+- Education and Awareness: Invest in public education and awareness campaigns to enhance digital literacy. Helping individuals understand their rights regarding algorithmic decision-making empowers them to seek explanations and challenge unfair practices. It also fosters a culture of accountability and transparency in the AI industry. 
+- Collaboration with Ethical AI Researchers: Foster close collaborations between AI developers and ethical AI researchers. This ensures that ethical considerations are integrated</t>
         </is>
       </c>
     </row>
@@ -3017,27 +3012,28 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>"How can we ensure that the design of implicit interactions makes interactive systems more user-friendly and less intrusive?"</t>
+          <t>"How can we ensure that algorithmic bias does not lead to discrimination in data-driven decision-making processes?"</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>"Can implicit interaction design enhance user-friendliness while reducing system intrusiveness?"</t>
+          <t>"Could algorithmic bias result in widespread discrimination if left unchecked?"</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>To ensure that implicit interactions make interactive systems more user-friendly and less intrusive, we can consider the following approaches: 
-- Emphasize Naturalness: Design interactions that feel natural and intuitive to users. This can be achieved by leveraging gestural, verbal, or environmental cues that already exist in the user's environment, reducing the need for explicit commands or complex interfaces. 
-- Respect User Intent: Implicit interactions should respect and interpret user intent accurately. By understanding user goals and contexts, the system can provide relevant and timely assistance without becoming a distraction or hindrance. 
-- Seamless Integration: The design should seamlessly integrate with the user's tasks and activities. This involves careful consideration of timing, frequency, and intensity of interactions to ensure they complement, rather than interrupt, the user's flow. 
-- Personalization: Allow users to customize the implicit interactions based on their preferences and comfort levels. Providing options for adjusting sensitivity, response types (visual, auditory, haptic), and interaction triggers gives users a sense of control and ensures a more positive experience. 
-- User Feedback Mechanisms: Implement mechanisms for users to provide feedback on the system's interpretations and actions. This can include confirmation gestures, correction methods, or explicit opt-out options to ensure the system remains responsive and adaptable to individual needs. 
-- Ethical and Privacy Considerations: It is crucial to address potential ethical concerns and privacy risks. Be transparent with users about data collection practices, provide controls over personal data, and</t>
+          <t>To ensure that algorithmic bias does not lead to discrimination in data-driven decision-making processes, it is essential to implement several strategies: 
+- Diverse Data Collection: Collect data from diverse sources and populations to ensure that the algorithm is trained on a representative sample. This helps in reducing bias that may arise from using skewed or incomplete data. 
+- Algorithmic Transparency: Promote transparency by explaining the algorithms used, the data they analyze, and the decision-making process. This allows for scrutiny and identification of potential biases or discriminatory practices. 
+- Regular Audits and Feedback: Conduct regular audits and seek feedback from affected individuals or communities. This helps in identifying biases that may have been overlooked and ensures that the algorithm is accountable to those it impacts. 
+- Human-in-the-Loop Approach: Incorporate human oversight into the decision-making process. This means having human experts review and validate the algorithm's output, especially in sensitive or high-stakes situations. 
+- Ethical Guidelines and Standards: Develop and adhere to ethical guidelines and standards for algorithmic design and deployment. These guidelines should address issues of fairness, transparency, accountability, and non-discrimination. 
+- Continuous Improvement: Continuously update and improve the algorithm based on feedback and changing contexts. This ensures that the algorithm remains relevant and adaptable, reducing the risk of bias or discrimination. 
+- Bias Detection Techniques: Employ bias detection techniques during the development and deployment phases. These techniques can identify and mitigate biases related to</t>
         </is>
       </c>
     </row>
@@ -3116,25 +3112,23 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>"How can we design intuitive and user-friendly interfaces for predictive mobile systems that effectively communicate uncertainty to users, drawing on insights from human-machine collaboration and case-based reasoning research?"</t>
+          <t>"Uncertainty visualization is an essential aspect of mobile predictive systems, as demonstrated by M. et al. How can we design intuitive interfaces that effectively communicate uncertainty to users and enhance their understanding of predictive information?"</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>"What methods can predictive mobile apps use to convey uncertainty to users?"</t>
+          <t>How can uncertainty be best communicated to mobile users through UI design?</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Designing intuitive and user-friendly interfaces for predictive mobile systems that effectively communicate uncertainty to users is a complex task that requires drawing on insights from human-machine collaboration and case-based reasoning research. Here are some key considerations and approaches to address this challenge: 
-- Utilize Human-Machine Collaboration: 
-   - Involve users in the loop: Instead of treating users as passive recipients of predictions, leverage their expertise and feedback. Allow users to correct, confirm, or refine the system's predictions, especially in cases of uncertainty. This collaborative approach improves user trust and system accuracy over time. 
-   - Adaptive learning: Implement machine learning algorithms that can adapt to individual user preferences, behaviors, and feedback. By continuously learning from user interactions, the system can make more accurate predictions and better communicate uncertainty. 
-- Apply Case-Based Reasoning: 
-   - Similar case retrieval: Develop a case library or knowledge base that stores past cases or scenarios along with their outcomes. When faced with a new situation, the system can retrieve similar cases and present them to the user, providing a reference point for decision-making. 
-   - Case adaptation and analogy: Besides retrieving similar cases, the system should also be able to adapt and extrapolate from past cases to handle new or uncertain situations. This involves identifying relevant aspects of past cases and applying them analogously to the current context. 
-- Effective Communication of Uncertainty: 
-   - Visualize uncertainty: Use visual representations such as confidence intervals, probability distributions, or</t>
+          <t>To design intuitive interfaces that effectively communicate uncertainty to users and enhance their understanding of predictive information, we can consider the following strategies: 
+- Visual Design: Utilize visual cues such as color, size, and position to indicate levels of uncertainty. For example, darker colors or larger sizes could represent higher uncertainty. This allows users to quickly interpret the information at a glance. 
+- Interactive Elements: Incorporate interactive features like sliders, buttons, or selectable options to let users explore different predictive outcomes and their associated uncertainties. This gives users a sense of control and helps them understand the range of possibilities. 
+- Tooltips and Hover Effects: Implement tooltips or hover effects that display additional information about uncertainty when users interact with specific data points or predictions. This can include explanations of the underlying factors contributing to the uncertainty or potential impacts on decision-making. 
+- Confidence Intervals and Ranges: Present predictive information with confidence intervals or ranges to convey the level of uncertainty. For example, showing a range of possible values for a predicted outcome can help users understand the variability and make more informed decisions. 
+- Natural Language Generation: Use natural language generation techniques to provide narrative descriptions of uncertainty, making complex information more accessible and easier to understand. This could be in the form of concise summaries or detailed explanations, depending on the user's preferences and the context. 
+- User Feedback and Iterative Design: Engage users in the design process by collecting feedback and conducting user testing. This iterative approach ensures</t>
         </is>
       </c>
     </row>
@@ -3232,21 +3226,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>"How do Krause et al., Kulesza et al., and Lee et al. propose to improve human-computer interactions and understanding of machine learning models?"</t>
+          <t>"How can we make machine learning models more interpretable and accessible to non-experts?" 
+This question is addressed in multiple sources, with various approaches suggested to improve the transparency and usability of complex machine learning models. By making these models more understandable, users can have greater trust and confidence in their predictions, leading to wider adoption and successful integration into various fields and applications. 
+For example, Krause et al. (2016) propose methods for users to interact with and visually inspect black-box machine learning models, while Lakkaraju et al. (2016) introduce a framework for creating interpretable decision sets. These contributions, and others in this list of sources, aim to bridge the gap between powerful machine learning tools and human understanding, ensuring these technologies are explainable and beneficial to a broader audience.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>"How can K, K, and L enhance human-AI collaboration and ML clarity?"</t>
+          <t>If we educate non-ML experts, will they embrace the technology faster?</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>By utilizing diverse methodologies, Krause et al., Kulesza et al., and Lee et al. offer insightful contributions toward enhancing human-computer interactions and deepening our understanding of machine learning models. 
-Krause et al. focus on the interpretability of machine learning, particularly in complex domains. They propose a framework that incorporates domain expertise and interactive learning to improve model transparency and understanding. This approach empowers users to actively engage with the model, providing feedback and insights that enhance interpretability. 
-Kulesza et al. emphasize the importance of human-computer collaboration in machine learning. They introduce a novel technique that allows users to provide direct feedback to the model, influencing its learning process. This human-in-the-loop approach facilitates a collaborative environment where users can guide the model's decision-making, ultimately improving its performance and alignment with human preferences. 
-Lee et al. take a different path by exploring the concept of explainable artificial intelligence (XAI). They propose a set of techniques and frameworks that enable the interpretation and explanation of machine learning models' decisions. By providing insights into the inner workings of these models, Lee et al. aim to enhance user trust and understanding, thereby improving the overall human-computer interaction experience. 
-In summary, these three works contribute significantly to the field of human-computer interaction and machine learning interpretability. By involving users in the learning process, promoting collaboration, and explaining model decisions, these approaches enhance our understanding, trust, and interaction with machine</t>
+          <t>To enhance the interpretability and accessibility of machine learning models for non-experts, multiple strategies are suggested. One approach, proposed by Krause et al. (2016), is to develop interactive and visual tools that allow users to explore and understand black-box machine learning models. This method improves transparency and helps users build trust in the model's predictions. On the other hand, Lakkaraju et al. (2016) introduce a framework for creating interpretable decision sets, making the models more explainable and understandable to a wider audience. These efforts contribute to the larger goal of bridging the gap between complex machine learning technologies and human understanding, ensuring that these powerful tools can be successfully integrated and adopted across various fields.</t>
         </is>
       </c>
     </row>
@@ -3322,29 +3314,21 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Please consider the following statement:
-"The field of human-computer interaction is evolving with an increased focus on explainable AI and intelligible system design. How can researchers build on the work of Lim et al. to enhance user understanding and trust in context-aware applications?"
-This statement addresses the context provided, which seems to be a list of academic papers focusing on intelligibility and context-aware applications. By framing the statement as a question, it invites further discussion and exploration of the topic, encouraging the development of practical solutions to enhance the user experience in this evolving field.</t>
+          <t>"Lim et al.'s extensive research on intelligibility in context-aware applications has paved the way for the development of explainable smart systems, enhancing user understanding and trust in HCI."</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>"How might Lim et al. build better user understanding and trust?"</t>
+          <t>"How might Lim et al.'s research shape the future of explainable AI?"</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>The field of Human-Computer Interaction (HCI) is indeed evolving, with a growing emphasis on explainable AI and intelligible system design. This shift aims to improve users' understanding and trust in interactive systems, particularly in the context of context-aware applications. 
-Building on the work of Lim et al., who have contributed significantly to this area, researchers can further enhance user understanding and trust by adopting and extending the following strategies: 
-- Transparent and Explainable AI: Ensure that the inner workings of AI systems are interpretable by users. This can be achieved by providing clear and concise explanations of the system's logic, decisions, and potential biases. 
-- User-Centered Design: Involve end-users in the design process to ensure that the system is intuitive and aligns with their expectations and values. This co-design approach can help identify potential trust barriers and ensure the system is responsive to user needs. 
-- Contextual Integrity: Build systems that respect users' privacy and maintain the confidentiality of their data. This includes transparent data handling practices and giving users control over their information, fostering trust and confidence in the system. 
-- Incremental Development and User Feedback: Adopt an agile development approach, incorporating user feedback at each stage. This iterative process can help identify potential issues and allow for course correction, ensuring that the final product meets user expectations. 
-- Ethical Frameworks: Develop ethical guidelines and frameworks to govern the design and deployment of context-aware applications.</t>
+          <t>The research conducted by Lim et al. on intelligibility in context-aware applications has had a significant impact on the field of human-computer interaction (HCI). Their work has laid the foundation for the creation of explainable smart systems, which are designed to enhance user understanding and trust. By making these systems more transparent and understandable, users can better comprehend the actions and decisions made by the technology, thereby improving their overall experience and confidence in interacting with these smart systems.</t>
         </is>
       </c>
     </row>
@@ -3443,23 +3427,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Here's a potential question that could be derived from the provided context: 
-"How have Ubicomp and the field of pervasive and ubiquitous computing evolved over the last 15 years, and what key paradigms and developments have shaped its progress?" 
-This question specifically targets context number 120, and it invites a discussion about the historical development, current state, and potential future directions of Ubicomp and related fields. It can spark conversations about technological advancements, research trends, and how the field has adapted to changing user needs and technological capabilities over time.</t>
+          <t>"How have Liu et al.'s contributions to the field of ubiquitous computing and human-computer interaction influenced the development of smart homes and gesture recognition technology?"</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>"Could Ubicomp's future mean its presence becomes an invisible part of our daily routines?"</t>
+          <t>Could Liu et al.'s research lead to more accurate and widespread gesture control in smart homes?</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over the last 15 years, the field of Ubicomp, or pervasive and ubiquitous computing, has evolved significantly, driven by key paradigms and technological developments. One of the most influential paradigms has been the Internet of Things (IoT), which has shaped the progress of Ubicomp by enabling the interconnection of a vast array of everyday objects and devices through the internet. This has led to the creation of smart homes, smart cities, and wearable technologies that seamlessly integrate computing into our physical environments. 
-Another key development has been the advancement of sensor technology, allowing for context-aware computing where devices can sense and respond to their surroundings in real time. This has enhanced the capabilities of Ubicomp systems, making them more adaptive, responsive, and contextually relevant to users. 
-Additionally, advancements in machine learning and artificial intelligence have played a pivotal role in the evolution of Ubicomp. These technologies have enabled more sophisticated data analysis, pattern recognition, and predictive modeling, allowing Ubicomp systems to learn from user behavior and provide more proactive and personalized services. 
-In terms of research trends, there has been a growing focus on privacy and security concerns within Ubicomp. As the field has progressed, so too have the challenges of protecting user data and ensuring secure connections between an ever-growing number of devices. Researchers have also explored the social and ethical implications of Ubicomp technologies, considering how they may impact behavior, relationships, and societal norms. 
-Looking forward,</t>
+          <t>Liu et al.'s contributions to the fields of ubiquitous computing and human-computer interaction have had a significant impact on the development of smart homes and gesture recognition technology. Their work has helped to enhance the functionality and usability of smart home systems, as well as improve the accuracy and robustness of gesture recognition technology.
+One of their key contributions is the development of innovative sensing technologies and algorithms that enable more natural and intuitive human-computer interaction. For example, they introduced a novel depth-sensing camera technology that can accurately capture and recognize human gestures, even in complex environments. This technology has been widely adopted in smart home systems, allowing users to control appliances, lighting, and other devices through simple hand gestures.
+Additionally, Liu et al. have made significant advancements in ubiquitous computing, where they proposed innovative methods for context-aware computing and pervasive sensing. Their work enables smart home systems to better understand and interpret human behaviors, intentions, and preferences, leading to more personalized and adaptive environments. By leveraging a combination of sensors, machine learning algorithms, and context-aware computing, smart homes can now anticipate and respond to users' needs in a more seamless and intuitive manner.
+Furthermore, Liu et al.'s research in human-computer interaction has influenced the design of more user-friendly and accessible gesture recognition interfaces. They have developed techniques for recognizing subtle hand gestures and finger movements, enabling individuals with disabilities or special needs to interact with technology more easily. Their work has also improved gesture recognition accuracy</t>
         </is>
       </c>
     </row>
@@ -3536,24 +3517,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>"How can we leverage machine learning to enhance user interfaces and improve the user experience?"</t>
+          <t>"Unleash the power of machine learning with Gestalt: a revolutionary tool that provides integrated support for implementation and analysis, empowering users to master their data."</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>"Describe how machine learning could enhance user interfaces and the key resulting benefits."</t>
+          <t>Sure! I would be happy to assist you with that. Here is the rewritten input: 
+"What unique advantages and potential applications might a fully realized Gestalt offer users?"
+This rewritten input maintains the essence of your original query while emphasizing the multi-step reasoning aspect and the potential complexity of a mature Gestalt system.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>By incorporating machine learning into user interfaces, we can create more intuitive and adaptive systems that can anticipate user needs and provide personalized experiences. 
-Here are some ways machine learning can enhance user interfaces and improve the user experience: 
-1. Personalization: Machine learning algorithms can analyze user behavior, preferences, and interactions to offer tailored recommendations, customized content, and personalized settings. This can make the user interface more relevant and useful to individual users. 
-2. Adaptive Interfaces: Machine learning enables interfaces to learn and adapt to user behavior over time. For example, an interface could automatically adjust its layout or functionality based on a user's past actions or preferences, creating a more efficient and user-friendly experience. 
-3. Natural Language Processing: Machine learning techniques can power natural language processing (NLP), enabling interfaces to understand and interpret user queries, commands, or feedback given in natural language. This allows for more human-like interactions and can enhance the usability of the interface. 
-4. Predictive Analytics: By analyzing patterns and trends in user data, machine learning models can make predictions about user behavior. This can be used to offer proactive recommendations, anticipate user needs, or provide targeted assistance, improving overall user satisfaction. 
-5. Smart Error Handling: Machine learning can be used to identify and rectify errors or bugs in the interface. These models can analyze user behavior and system performance to detect issues early on and provide solutions or workarounds, minimizing user frustration and improving the reliability of the interface. 
-6.</t>
+          <t>Gestalt is a groundbreaking machine learning tool that offers a seamless and integrated experience for users. With Gestalt, you can unlock the full potential of your data. It provides a comprehensive range of features, including implementation assistance and analytical tools, enabling you to efficiently manage and interpret your data.</t>
         </is>
       </c>
     </row>
@@ -3650,21 +3626,21 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>"How can we leverage emerging technologies to create geometrically-aware and self-configuring interfaces that build trust and ensure user privacy?"</t>
+          <t>"How can we leverage the latest advancements in AI and data visualization to create more intuitive and trustworthy user interfaces for complex systems, ensuring better human-machine interaction and understanding?"</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>What challenges do self-configuring interfaces face in ensuring user privacy and trust?</t>
+          <t>How can AI data visualization improve user understanding and trust?</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>To create geometrically-aware and self-configuring interfaces that build trust and ensure user privacy, we can leverage the potential of emerging technologies in the following ways: 
-- **Utilizing Geometric Deep Learning:** By employing geometric deep learning techniques, interfaces can become more spatially aware. This involves incorporating geometric constraints, such as shape, size, and positional relationships, into machine learning models. This enables interfaces to understand and interpret user interactions in a more human-like manner, leading to more intuitive and natural interactions. 
-- **Implementing Self-Configuring Mechanisms:** Emerging technologies can enable interfaces to automatically adapt to user needs and preferences. By leveraging machine learning and context-aware computing, interfaces can dynamically reconfigure themselves based on user behavior, environmental factors, and task requirements. This not only enhances usability but also builds trust as users feel understood and supported by the interface. 
-- **Adopting Secure and Private AI:** Ensuring user privacy is paramount to building trust. By employing privacy-preserving AI techniques, such as federated learning, homomorphic encryption, and differential privacy, interfaces can learn from user data without compromising sensitive information. Additionally, utilizing secure computing platforms and blockchain technology can further enhance data security and user privacy. 
-- **Promoting Transparency and User Control:** Building trust requires transparency in data handling practices. Interfaces can provide users with clear and concise explanations of how their data is being used, along with offering granular control over data sharing preferences. This empowers users to make</t>
+          <t>The latest advancements in AI and data visualization offer exciting opportunities to enhance human-machine interaction and create more intuitive and trustworthy user interfaces for complex systems. Here are some key strategies to leverage these technologies effectively: 
+- Utilize Natural Language Processing (NLP): NLP techniques enable the development of intuitive chatbots and virtual assistants that can understand and interpret human language. By incorporating NLP into user interfaces, we can create more natural and conversational interaction methods, making complex systems more accessible and user-friendly. 
+- Embrace Machine Learning (ML): ML algorithms can be used to analyze and learn from large datasets, identifying patterns and insights that may not be apparent to human analysts. By incorporating ML into data visualization tools, we can generate more meaningful and informative visual representations, helping users make faster and more accurate decisions. 
+- Implement Contextual Design: Consider the context in which the user interface will be utilized. By understanding the user's tasks, goals, and environment, designers can create interfaces that seamlessly integrate with the user's workflow. This ensures that the interface is not only intuitive but also efficient and effective in supporting the user's tasks. 
+- Prioritize Ethical and Responsible AI Practices: As we develop more advanced AI systems, ensuring ethical and responsible practices is crucial. This includes addressing privacy and security concerns, as well as mitigating potential biases that may exist in the data or algorithms. By prioritizing transparency and user trust, we can ensure that AI-powered interfaces are not only powerful but also trustworthy.</t>
         </is>
       </c>
     </row>
@@ -3745,20 +3721,23 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>"Exploring the Evolving Landscape of Human-Computer Interaction: From Expert Systems to the Sharing Economy."</t>
+          <t>Here is a potential question that could be addressed by the given context: 
+"How have perspectives on expert systems and explainable AI evolved since the 1980s, and what are the key challenges and advancements in the field today, as outlined in the provided references?" 
+This question touches on multiple references provided in the context, such as the early work on explanation in expert systems (reference 155 and 165), the evolution of perspectives on case-based reasoning and explanation (reference 159), and more recent discussions on the challenges and importance of explainable machine learning (references 160 and 162). It invites a discussion that traces the historical development of ideas and highlights ongoing research efforts in human-computer interaction and artificial intelligence.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>What is the central message and main benefit of a plant-based diet?</t>
+          <t>"What challenges and historical views might we see if Explainable AI was widely adopted?"</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>The provided context is a book or article title, and here is a possible answer that is factually aligned with it: 
-**Answer:** "Exploring the Evolving Landscape of Human-Computer Interaction: From Expert Systems to the Sharing Economy" appears to be an intriguing exploration of the progression of human-computer interaction, delving into how we've moved from traditional expert systems to the innovative sharing economy. 
-This title suggests a comprehensive review of the changing nature of human-computer relationships, examining the evolution of technologies designed to interact with human expertise and decision-making processes. It likely covers the shift towards a more collaborative and accessible future, where the sharing economy has revolutionized how we interact with technology and each other. 
-Overall, the title hints at an insightful analysis of the past, present, and future of human-computer interaction, promising to uncover the trends, innovations, and societal impacts that have shaped this landscape.</t>
+          <t>Since the 1980s, perspectives on expert systems and explainable AI have evolved significantly. Early work on explanation in expert systems, as referenced (155 and 165), laid the groundwork for subsequent developments. The evolution of case-based reasoning and explanation (reference 159) further contributed to the field. 
+Today, the key challenges and advancements in explainable AI revolve around the increasing complexity of machine learning models and the need for transparency and interpretability. References 160 and 162 highlight these ongoing discussions and the importance of addressing these challenges for the responsible development and deployment of AI systems. 
+One of the key challenges is maintaining a balance between model complexity and explainability. As machine learning models become more sophisticated and powerful, explaining their decisions and internal logic becomes increasingly difficult. This challenge is particularly prominent in fields like deep learning, where models with numerous parameters and complex architectures achieve impressive results but offer limited interpretability. 
+Advancements in the field are focused on developing techniques for explaining complex models, including local interpretability methods, feature importance analysis, and rule-based systems. Ongoing research also emphasizes the importance of explainability in various AI applications, such as healthcare, finance, and autonomous systems, where transparency and justifiability are essential for ethical and regulatory reasons. 
+Furthermore, human-computer interaction plays a crucial role in this evolving landscape, aiming to bridge the gap between users and complex AI systems. This involves</t>
         </is>
       </c>
     </row>
@@ -3851,26 +3830,26 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Here is a potential question that could be addressed by the given context: 
-"How have experts in the field of human-computer interaction, such as Tullio, Dey, Chalecki, and Fogarty, contributed to our understanding of user behavior and system design, especially in regard to non-technical users and intelligent systems?"
-This question relates to context 169, which describes a field study conducted by the authors to understand how non-technical users interact with intelligent systems. It invites a discussion on the insights gained from the study and how they might inform design practices to improve user experiences.</t>
+          <t>"How can we bridge the gap between technical and non-technical users when interacting with intelligent systems, and what design frameworks can enhance the user experience?"</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>What specific design enhancements are suggested by Tullio and colleagues?</t>
+          <t>If we add more intuitive features, could our app cater to a wider range of users?</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>The field of human-computer interaction (HCI) has seen significant contributions from experts such as Tullio, Dey, Chalecki, and Fogarty, who have dedicated their research to understanding user behavior and improving system design, particularly for non-technical users interacting with intelligent systems. 
-By conducting a field study with non-technical users, these researchers gained valuable insights into how this specific user group perceives and interacts with intelligent systems. The study likely involved observations, interviews, and data collection to understand users' needs, preferences, and challenges when using such systems. 
-Through their research, these HCI experts contribute to a growing body of knowledge that informs design practices and guidelines. Their findings can help designers and developers create more user-friendly and accessible systems, ensuring that even non-technical users can effectively utilize intelligent technologies. This might include simplifying interfaces, providing more intuitive interactions, or offering personalized experiences that adapt to the user's skill level and goals. 
-The work of Tullio, Dey, Chalecki, and Fogarty, therefore, bridges the gap between technical innovations and user experiences, ensuring that the design of intelligent systems is informed by a deep understanding of human behavior and needs. Their contributions enhance the usability and accessibility of technology, making it more inclusive and beneficial to a wider range of users.</t>
+          <t>To bridge the gap between technical and non-technical users when interacting with intelligent systems, it is important to adopt a user-centric design approach that focuses on usability and accessibility. Here are some strategies and design frameworks that can enhance the user experience for both user groups: 
+- **User Interface (UI) Design:** Create an intuitive and user-friendly interface that is easy to navigate and understand for all users. Use clear and concise language, minimize jargon or technical terms, and incorporate familiar design patterns that users can recognize and relate to. 
+- **Information Architecture (IA):** Organize and structure the content logically and intuitively. Use proper labeling, grouping, and hierarchy to help users find what they need efficiently. Ensure that the system adapts to the user's needs, allowing for customization and personalisation where possible. 
+- **Human-Centered Design (HCD):** Adopt a human-centered design approach that takes into account the needs, abilities, and limitations of both technical and non-technical users. Conduct user research, gather feedback, and involve users in the design process to ensure the system is tailored to their requirements. 
+- **Simplification and Abstraction:** Break down complex technical concepts and processes into simpler, more digestible chunks of information. Use visualizations, analogies, and metaphors to help non-technical users grasp the functionality and capabilities of the system. 
+- **Interactive Tutorials and Onboarding:** Implement interactive tutorials or onboarding processes that guide users</t>
         </is>
       </c>
     </row>
@@ -3927,21 +3906,21 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>"Discover the latest advancements in intelligent systems for the home, with insights from the Learning Thermostat, to managing adaptive versatile environments. Explore how to reduce gender bias in shopping and learn about rule extraction from deep neural networks. All this and more in the upcoming CHI 2018 conference proceedings."</t>
+          <t>"The field of intelligent systems and adaptive environments is rapidly evolving, with an emphasis on creating intuitive and versatile technologies that enhance our daily lives. From learning thermostats to gender-bias reduction in shopping algorithms, the papers presented in this conference offer a glimpse into the future of human-computer interaction and the potential for a more efficient and inclusive world."</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>If CHI 2018 covers home systems and gender bias, might it also address other social issues?</t>
+          <t>If these papers focus on machine-learning advancements, what do they seek to achieve?</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>The CHI 2018 conference proceedings will offer a wealth of insights and innovations in the field of human-computer interaction. Attendees will be able to discover the latest advancements in intelligent systems for the home, including the Learning Thermostat, and explore approaches to managing adaptive versatile environments. Furthermore, the conference will address important topics such as reducing gender bias in shopping and rule extraction from deep neural networks.</t>
+          <t>The field of intelligent systems and adaptive environments is indeed evolving rapidly, with a primary focus on making technologies more intuitive and versatile to improve various aspects of our daily lives. The conference papers offer an exciting glimpse into the future of human-computer interaction, showcasing innovative solutions such as learning thermostats that can automatically adjust to user preferences and shopping algorithms that reduce gender bias, leading us towards a more efficient, inclusive, and bias-free world. This evolution in technology emphasizes the potential for a better future, where intelligent systems work seamlessly with humans to create a more adaptable and equitable environment.</t>
         </is>
       </c>
     </row>
